--- a/Result/VAR/Service/JPN.xlsx
+++ b/Result/VAR/Service/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,213 +460,223 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.316127732499524</v>
+        <v>62.7522224925761</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B3" t="n">
-        <v>1.02963372754818</v>
+        <v>63.62734645199382</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2630108664033415</v>
+        <v>64.15978510197377</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1770735815649687</v>
+        <v>64.89944831178339</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.7008079817032069</v>
+        <v>65.91522182477088</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8377629295960105</v>
+        <v>66.4578417426288</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2209396987607022</v>
+        <v>66.7975432524639</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.8840821891193258</v>
+        <v>67.64452755037614</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1081729792117301</v>
+        <v>68.56883756341452</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2099578639187598</v>
+        <v>69.57708614403776</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.508453195337907</v>
+        <v>69.41174236615628</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1347943732652084</v>
+        <v>69.54364537854501</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5904179427040219</v>
+        <v>70.02139177040874</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9482066609375437</v>
+        <v>70.43395347937252</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.01575793006046</v>
+        <v>71.02759690222443</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B17" t="n">
-        <v>2.513435842000007</v>
+        <v>71.38769141891304</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.090925075414475</v>
+        <v>71.50283115190551</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1823515057446627</v>
+        <v>71.31134399330145</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6104005932892278</v>
+        <v>71.19075670774615</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3517392228893925</v>
+        <v>70.6633332140057</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B22" t="n">
-        <v>1.180016936755507</v>
+        <v>70.23017643232332</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="n">
+        <v>70.1066824489499</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -714,7 +724,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9589608313337992</v>
+        <v>70.14058843822477</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -724,7 +734,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7887352245740692</v>
+        <v>69.91011651629316</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -734,7 +744,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6691264121955025</v>
+        <v>69.71461862479464</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -744,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4939280907221857</v>
+        <v>69.48554616072676</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -754,7 +764,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4078961987097699</v>
+        <v>69.23853630483706</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -770,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,283 +812,273 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B2" t="n">
-        <v>62.93174163037728</v>
+        <v>62.81541038917255</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B3" t="n">
-        <v>63.21285779605014</v>
+        <v>63.26773725397905</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B4" t="n">
-        <v>63.17784622922347</v>
+        <v>64.12350959645227</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B5" t="n">
-        <v>64.17246838994498</v>
+        <v>65.15294837797941</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B6" t="n">
-        <v>64.90407968426315</v>
+        <v>65.88596591067559</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B7" t="n">
-        <v>65.81276456014629</v>
+        <v>66.55574349269897</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B8" t="n">
-        <v>66.02064145432622</v>
+        <v>66.99623627802173</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B9" t="n">
-        <v>67.06628127810217</v>
+        <v>67.85499294058552</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B10" t="n">
-        <v>68.33286080063881</v>
+        <v>68.71768619215513</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B11" t="n">
-        <v>68.71535813405613</v>
+        <v>69.18957364246475</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B12" t="n">
-        <v>68.98968248826172</v>
+        <v>69.36817517943865</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B13" t="n">
-        <v>69.47396470638607</v>
+        <v>69.7789138979664</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" t="n">
-        <v>69.44979372917251</v>
+        <v>69.8219477659957</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B15" t="n">
-        <v>69.56041712522416</v>
+        <v>70.22755562574173</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B16" t="n">
-        <v>70.26145846397984</v>
+        <v>70.67533821186578</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B17" t="n">
-        <v>71.91070646367305</v>
+        <v>71.55579498650447</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B18" t="n">
-        <v>70.54419653330581</v>
+        <v>71.53141988794056</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B19" t="n">
-        <v>71.69112244493857</v>
+        <v>71.42875443995015</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B20" t="n">
-        <v>71.74712328115686</v>
+        <v>70.81661484965103</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B21" t="n">
-        <v>71.62077261163049</v>
+        <v>70.75376244744837</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B22" t="n">
-        <v>70.88402134881488</v>
+        <v>70.68953673738817</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B23" t="n">
-        <v>69.79553086310989</v>
+        <v>69.94820087794699</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8870573141604</v>
+        <v>69.93782972968754</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B25" t="n">
-        <v>69.53577556669734</v>
+        <v>69.67841523695367</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B26" t="n">
-        <v>69.43251929106526</v>
+        <v>69.48935922232687</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B27" t="n">
-        <v>69.41674282423787</v>
+        <v>69.14780100093196</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B28" t="n">
-        <v>69.46539977114418</v>
+        <v>70.68898038798828</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B29" t="n">
-        <v>71.01676140684715</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1126,7 +1126,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>1.362863473880338</v>
+        <v>71.68481953304141</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1136,7 +1136,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6079316246814833</v>
+        <v>71.89450736423359</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1161811107562793</v>
+        <v>72.04072272716483</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1156,7 +1156,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04655958519257829</v>
+        <v>72.29525381878764</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1436377434516567</v>
+        <v>72.62541127535778</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
